--- a/PortfolioTrader/Documentation/RecalculateWeights.xlsx
+++ b/PortfolioTrader/Documentation/RecalculateWeights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\PortfolioTrader\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEA61E-0688-46B2-BC1B-07D57E45E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03AB28-42A3-4249-BB3F-FAFC313E4E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{69EADF6D-A8AE-40CE-A349-19A960229C38}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{69EADF6D-A8AE-40CE-A349-19A960229C38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E8B556-2FF2-4F5C-9F4B-53A6961D4CE7}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PortfolioTrader/Documentation/RecalculateWeights.xlsx
+++ b/PortfolioTrader/Documentation/RecalculateWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\PortfolioTrader\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03AB28-42A3-4249-BB3F-FAFC313E4E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A779BF-77D8-49DE-ADBC-0186FA47B6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{69EADF6D-A8AE-40CE-A349-19A960229C38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>PYPL</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>BarInCents</t>
+  </si>
+  <si>
+    <t>WeightBarScaled</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E8B556-2FF2-4F5C-9F4B-53A6961D4CE7}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,13 +539,13 @@
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.35">
@@ -660,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">

--- a/PortfolioTrader/Documentation/RecalculateWeights.xlsx
+++ b/PortfolioTrader/Documentation/RecalculateWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\PortfolioTrader\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A779BF-77D8-49DE-ADBC-0186FA47B6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621D801-F373-4F70-A85E-AB9BFF344543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{69EADF6D-A8AE-40CE-A349-19A960229C38}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E8B556-2FF2-4F5C-9F4B-53A6961D4CE7}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PortfolioTrader/Documentation/RecalculateWeights.xlsx
+++ b/PortfolioTrader/Documentation/RecalculateWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\PortfolioTrader\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621D801-F373-4F70-A85E-AB9BFF344543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3684A6-8C71-4017-A587-D95BDD6AD519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" xr2:uid="{69EADF6D-A8AE-40CE-A349-19A960229C38}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
